--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/57_Mardin_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/57_Mardin_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF206FF1-1270-49CD-A8E1-41EBC469FA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C7F50E-6AFD-4AED-A76F-7F426D072F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{0481FABC-B049-4336-944A-AAE25BE9A53A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{75190C33-AE7F-479F-ABD0-F8EDDDB39892}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -955,14 +955,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{9A45E32D-3CE2-4864-9D7C-8FC4C3A78F70}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1ECE9B43-EC1A-4388-A436-83C672E2469C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{1103B08D-79F4-427F-A6CA-1BC4FB18660A}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F38CBEAA-3EBE-48E3-AAF3-EE19CFF8AD29}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C1F4BD9A-7AC6-4B9E-ABC5-6E6AE00CF82F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{E494FDA4-CAA2-4E02-AD83-DC04B2A30CCF}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{3A7FB07A-98D3-43FE-8A7C-E22720E7E5E9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{8E209870-4EEA-4012-BA09-747CCD772505}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{60498D98-1F67-44BA-8703-450DED82F970}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1F2217EF-E479-4AC0-9151-AD9F17538963}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4533B23C-C2E0-4094-BA71-6148353F4968}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{0C169C87-B54A-41A6-A87F-49EC5B0E597D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{1774E3F8-F125-4017-8D99-28C3E8EC752B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A1841496-D1D8-4C3A-8D06-BC036317E49C}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{493518DB-C059-4C1A-AEEE-B501928D069C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{06EE01AD-7D7F-4E36-930D-955DC4A551B3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1332,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7133175-815C-4010-B2A2-9F87348ADE5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF73BBA4-457A-476D-9212-99C9D8367D78}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2609,18 +2609,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D355E1A0-538F-45B0-8381-AD1B8592875E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C04E79C-3396-4EB4-A13B-C15543A17B07}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{97A16BD9-47E3-496E-956B-3C8768C9D04E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A881470-BC3B-4D4A-A156-032035DDBC07}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{318D7466-A4DE-404A-BD52-529085D61BF7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{206EBDD2-1E5D-4512-8D98-B4E0B56464E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7553BAA-F8AD-4C08-94F3-FDE1FCE13456}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C4E8EF5-02F2-4D5E-A023-E61CA87C6FA4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{657C8D11-37A8-429D-9569-8C4A4794E643}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{09686271-CCD1-4D15-A7B2-A28444136654}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B4703B2-0048-41E8-9187-680A0B1C7997}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F2AC873-C4CE-4BD4-B544-C6AF48BAAFAD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28889700-A42D-4C4C-84F9-89D15F97FA00}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6161B5F-A2E5-457A-B5FC-EDF5573BF626}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5883099C-A9B8-41AC-A0E1-554B1D214702}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B1772310-6708-4132-A89F-E1E45C232DF2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A7ADD6F-F6B8-4C73-91A6-5626E7EC133F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D09974D9-E5AF-4AA2-980B-A55AA7EAF192}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A8BB2B2-B981-4A86-BC68-F50393C7B2EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E84391A-EABB-4250-B8A6-2D0D7E48649A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B4A4D77-97B8-420B-9A64-A8712E81300E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3B206CE9-A96B-46D9-80F8-DB259F8C57EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{815CAFCF-26F4-461F-B650-C97FFCB2D064}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32F752A1-9E73-4E5D-9C2C-052527AA2289}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2633,7 +2633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5730C3A9-51E8-453E-9856-7482D658F18C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09A888A-AF63-42F2-8018-F886FBA38D75}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3870,18 +3870,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65C69D38-0CC2-4EA4-866A-3B89F26DF9B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D573655-F7DE-4201-9E7C-95A5E51638B6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{63FAB331-D439-47FF-BAF7-A7C7C9D90788}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55C7CC84-F5D0-4F84-AFB1-7B738ABD6BBC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F9E9B01-05C0-4A2F-839F-C8BDAAB5EACE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CB37B261-ABCE-403A-A342-997C00645027}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31443C30-4682-40D7-854A-5AD342669C57}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59BD61D4-111C-4E93-8755-C97743E230CB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{16D169C1-12E9-41AF-9707-4E8C1FCA79C8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F1862A8B-09E8-4E6B-A58C-9F85D5190FE2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{985F7433-F0B7-40E1-AEC4-C391E4A8A7C0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{934E77F3-8AD9-4478-A67C-E4A350AB9897}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78946016-9ADB-456D-A620-3491A9D1E26E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F262297B-AD45-4126-ABAD-7E830E406B85}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5D49A7BE-753E-4F17-A9EA-62C178FF7214}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55938C3D-A4B5-4AE6-B023-350451EA236F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D076022F-7F3B-44CF-B67F-C2365BB5C3B0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D9F9EF77-2552-4445-8041-28161DC304B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DBF0BE2-58E5-4CDC-B2BE-0FE3EB27F27F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D9C2531-9427-4560-9920-06AFFAD8C757}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AD2F5CD-82BB-470C-B848-14386B77628B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{67222278-4900-407C-929B-514956F7BCED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EAB80B53-D07E-46C2-88CB-0ACF600B6A2D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{29EBAB46-075C-45DD-B0F9-6C3241D538AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3894,7 +3894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D34333-5DAD-4B07-A520-75426BEAF7EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E0341C-F2CF-4938-BA10-4E1A4CCD7F10}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5131,18 +5131,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9BE73EB-1408-4AD3-908A-24F15BFF09C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A136E89D-7825-4786-AA98-25C7D29D61A1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56E509BD-5AE9-4183-995B-B3B87AFEC3A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{557343D7-CD60-433B-AFF6-5F6A550DEA9F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93454753-9E13-4940-A530-B5135E329F74}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3F481CA7-5485-4669-AA6C-E96C720C4E8C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A5FF5D7-253E-4890-B35C-E9EB879E0CE2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F05C14E-31A6-412F-A706-A4AB0A604D5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD8A0A4F-A6CD-4FDF-91BE-A6C400AAE29A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9BB36315-83E0-4BC2-93A8-F0B7583C241D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9204D904-FADB-4ADA-A40D-CEC642E0AC27}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9CAA5B73-0028-4254-B5C1-E45BA1823FDC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21A4A58F-CD76-4FF4-8A0D-CA0503822895}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92EB899D-C67F-4027-8908-1442330CFD60}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F6D80BB-5D70-47A9-8C8A-F5D18F2084BF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A74D212D-7ACF-431C-B888-FDBDCC6DE4D9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8BBC185-CE3C-4014-889A-964187DCCD11}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C9F6B357-9F7E-4F94-9CD8-5CBE7D6E37E6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99F7AD27-9847-4F18-A83F-3B9BDB59A6DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD516CBF-52F6-4F8D-B6BB-ACB42CDD572B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBADDE66-343E-4E26-B3A3-C382CFF32E3A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{144E943F-F74B-4029-8859-2F8A608EE18D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{394D6E29-EE54-40C2-BACB-5ABC56D8AF8E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CBDA01BB-4DC5-441F-AB22-E81DD07F878D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5155,7 +5155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52004164-4FD1-4ED7-A277-F0CF50B31614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A390016-2185-426B-AA4B-B3413BD82220}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6389,18 +6389,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1916A876-2990-4C37-B64E-73231BE38F5A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5CF7303-364F-4B32-92EF-E853A4596ABA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FCCFD0C-7EB0-4B02-AEC8-38F592096821}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17D421EA-D838-4FF4-8DEB-B34455710B6C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36399BDE-CEBD-4929-93E3-08A5618B85EE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{16F359F6-048B-46D4-8396-17F853300F6E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1852D392-C496-4CFB-8915-B1A620C768C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BFF0E64-1B7F-4450-9314-56FEFCBD147B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E184E72D-128B-4911-85DF-9F7724A66BE5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0A2E236E-239F-4CBD-AF45-5069E7E0BAA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D142B56-DB87-4199-ABFC-77F1159F35B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D77DF466-B04E-4614-8ADB-0D3C4ADF8362}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04DF5EE1-C34D-4929-8C0F-4765C9B6FA47}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD94D7A9-A6C9-4048-8A12-A369C59C6900}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24C7E38C-1960-44D4-AED7-B348046DBEA9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4E9E9C3-DD99-4E9D-9A11-03EDCC104A9C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C16BD67-B7F7-4B63-9668-3F3CD52B1C61}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{189DE193-55C2-4944-A2D3-2F1C80C4831A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CA746C8-90E2-420B-A34D-C2B840E7BE3F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{375ADF8D-E3F7-4E3E-BA04-459006127AC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5065B3B6-BCCC-4833-AFEB-2CEB98899E44}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ADF5F1E3-BDF7-4520-B6E3-2269D47A40ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5429D3B-3C64-48D4-8B04-137AE544AD69}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{786F152D-478A-4671-9D6A-7D8403350B09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6413,7 +6413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A03AC8-5E7D-4429-9A14-4CD35AEF5D2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5756F21C-2C46-469A-BDA1-4C9B580CC530}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7692,18 +7692,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E7CDD74-E9AE-43D0-B29F-4DC297CFF494}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2C554C2-DF0D-4362-BE55-691A7A06DF46}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{171A6616-1402-4322-86BE-D57F9468BD80}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{855075B3-D10E-49EC-BFAE-1FBED6FFC8D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D2B9444C-FD1D-472A-9FDC-9E3DB52CFBAC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{514C5CFF-E659-4454-AB74-D4802F8965E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{531EACE1-499D-4C3C-9EF5-069ED364E743}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4C24544-AD59-43D9-8646-73BA7BAC6762}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D2C390C5-3CF4-4463-9919-35BA37C2D887}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6C3D85A8-DBE2-46BC-8C6A-1C45DF244881}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB7BC667-0089-4BCF-A23D-40B60532D788}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B65AE7C-E041-43D2-BD9E-8EB40C929971}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3175D0BB-E071-4819-AC97-A8C870D5EEDF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D80A5757-C6DB-4057-8CD0-329EC1DE3A3C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1038C6C-3C6D-41BA-AAE0-388F2E9F697B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D526D84-289F-4930-97AB-EE2A9E21423D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8591C72-C366-4228-86DF-F3D9133A1D97}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FDF7AD5A-F914-4A98-850F-7ABAE19A264D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BDD0303-6C12-4B64-8AC9-F3CEF3D1C220}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75C396AD-6CB0-435B-A57D-E8CBEEB0977E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{724812AB-D22D-44DB-99A9-E9FD68037B8B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A5B1553B-71E6-4A26-931F-7F8DB2732639}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF660214-A430-43D5-88D8-75E4CECD1463}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A79D89D-24B1-4E2A-858A-54B137D0A9D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7716,7 +7716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A824FF6-C1B1-4887-AEEA-5595CBD6E51E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF784D02-289F-4FC5-BFA4-5CAC4F9F1CD8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8995,18 +8995,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFBAE81A-AF7D-492F-89D2-66C0E73AE4A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EB68902-42BB-4637-9BA3-483B13872E81}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8721B6FC-D58C-4A11-87F7-9D1E9815B79B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1542773A-FBEA-463E-AB4E-F38E24307912}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC8392D7-F5BE-448A-8361-07EC72B6808D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{577C42B7-BA74-4048-80A0-87D5033063F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7366CD2-9B3E-4A24-8237-6040A27982B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67FA811B-E799-4B76-A764-53FD6489C718}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5F768D2-3681-442B-AD12-84B602A2DF63}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{519AA6C8-D93B-4A90-BFB2-5D3A73B67069}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32B9598D-1555-4945-9483-11A7D7B65A1F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3FAD965-90DD-473E-9F48-AEDC879AC650}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9C3AF8D-3FF9-43F1-96D0-945130D972F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49BC9564-AD5F-4C42-BF1F-9C2EAE3E1595}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E2F2B922-8EE7-4040-A128-B0E574C1915E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5509AB3A-0ED7-4896-9F74-95248749AD6B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8C82BA5-E998-46D9-863C-8A9989F00475}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8D0DA9C6-9E66-43F5-AB3E-69553E2FF657}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44E54A6B-3260-491D-88D0-E9EA85B07946}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29921AA8-2AAB-4397-B498-EBACAE65D812}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD3A42F7-27A4-4F4A-A949-B52EDA27DA36}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D12C41EA-3343-4AEF-A6DD-529D3718A381}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0F2C014-51BF-4085-A80E-F3E5ABB0A0B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7F85490-D3D5-48AF-864B-789E2A33FD27}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9019,7 +9019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DC3381-EFC8-44DC-BB82-9ECB7884E328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2E5D26-FD46-4E7D-85B0-8A6A09BA6B30}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10298,18 +10298,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C4ED6C1-F317-44E8-92D4-AA5C916602B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4ACD4C7-1FA1-49DB-8796-250A6C6844C2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE8373BD-9E32-44D0-89A9-BCD845F4543A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{49E3850B-1BE6-4D57-9AF9-2643DB0DF187}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{862D87DD-EE52-49E3-9A1D-A21331F12379}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CDBE5CDB-1CC9-4857-ACAF-0F0C8593181B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{782A8DE0-C687-47BF-A5D8-449E1EE3F2A7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{705B8B88-7483-4DC1-997D-57C1FD63F74D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1FDBBD7-9234-419C-830F-0A4D48A81BDC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F59A685A-F99C-4DE0-9ED5-23432FD57C65}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C33EA96-4364-435B-AF5D-61DC049FAB22}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85EA3341-616F-45E2-B94A-AF1898B80A8A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9DB34599-7F3D-44BC-8390-EF43C7BDF32F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{862B6C20-18AE-4B85-A061-D06F1869C039}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27C37747-22AA-42DF-9BD6-F51B9E59FC16}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3841D40C-CF91-4546-9FAC-F18D77E5292C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83C0EE31-CC83-4ED1-A869-924C9E1F041D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C560097-C5AE-4FB0-91E4-0D763FF72B82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{963E013F-2181-45C1-8960-ABE7E733A842}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5F95642-D178-48B4-95E3-F0B3BDB73728}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B1C7BC9-7170-4E86-86DB-7134E940CB5C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{52432946-7749-4230-A7B4-E10105C5DE9F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF584BBB-2832-4C58-BCCE-E030B96367E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDBB91B2-5B86-4A66-A8BA-C50B6D9BC63E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10322,7 +10322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8945DCB-F863-4ACB-8553-16B9EE934C97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6DF222-049E-4368-A96B-96DE6127B408}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11601,18 +11601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F0F6DD4-936B-452F-AB2F-BDD71917E1E9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0A2D63E-771D-4C7C-B071-63237455EA91}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{51DA7311-0A93-480A-9657-EB95CECF4B95}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F07D2BF-480A-410D-A5E2-9FC19E2B5AAE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F09D711-B900-46FF-B71F-8D93F33266D6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{49596332-B975-47F6-B62A-1022203A33F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A40B4EF-22B2-452C-9F18-F74B3242B524}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A5D4F8A-6A3B-4E0A-AB58-603BAFB69C6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48DCCA9E-3963-4A36-9E1F-5EBCEBEEE30E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{13BF73E4-2184-4ABA-85EE-2E5F58A5B058}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{084CD10A-F37E-4D49-8205-C97A3AC104A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{870FA128-BF47-456E-BDE7-9DE36F8A0B20}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B178AB4C-D4BF-4600-AEB8-182A517DA963}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1426E73-12D4-439B-A888-8D14F6A653F7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2155BC3B-277C-4148-8625-4F0E5ACBFEB5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{132C78B3-CD76-465A-8AD0-B63A9E6D34A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{99F25596-CC21-4A9F-898B-8E469F15BE8E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6AE022A1-B23B-4E68-9369-65000CF04776}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24FC9A8A-6DCB-43BF-A4D8-0AD481A11703}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1E0BBE0-244B-4870-BA07-0DBDDB06C5AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C45F579-2E67-41DE-897C-4EC264113082}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8FB0A46A-F636-478E-B0A0-840CA9FEA9B5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BFC9543-0DB4-4816-B8D8-CAF7E4711062}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0EB5CCFE-685F-4EA2-80BE-37050D0C760A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11625,7 +11625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86609CE-A855-4A89-A386-5DF031BF6B4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698EE3B6-DD12-4D64-90B4-3E854CF38568}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12896,18 +12896,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AE87682-5E9C-4E48-A82F-9397B56B466F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C1D1AC3-5DF0-4A70-8307-47D0B25A3C5B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4CDABCCF-447C-4CDB-A07A-97130840404E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6FA6883A-EDAB-4923-9A89-9752B7DE61BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C8C8A10-1657-4E7F-B661-0630F303B01D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F5CC45F4-77BF-4CE4-A7DD-8232ABEAEFA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{670108B8-6079-4210-9267-5C2A7C64DC71}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{881F1557-CB50-4D94-8A4C-DFD3477407F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F07824CD-35A6-4513-A9A0-E5C7D13C9FB5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{837CA4F6-407F-46F5-A8B0-A0D3FC86FE7B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{746972AB-5E07-4DE8-B9B1-3BA293523E55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B06965F8-9858-4223-B9B9-704F59CC80E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1831D88-AC09-47E7-B947-B4CAA6392D01}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85A22C6A-A743-42E8-BDF5-5EFF466666C2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8F0ED35B-0813-4F90-868B-7C1A31C18550}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC4133AE-347C-4EE1-9CAD-ABC0A4D1EB80}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12C5A4A5-5A4E-46FF-9801-DE7C6FEEA41F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B423F2DD-27F8-4011-B6DD-F36AC96904F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94FF1B0F-8583-498C-95D8-5B600B46C9CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33418576-FF7B-485F-BD55-F394BFD5CEFC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F2D7724-C408-427C-91E4-F9177B3E8AA4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3F7AA6AE-D430-43DF-A717-1FB9516D7B72}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{121E62F7-FF80-4E89-9EE4-04194CAD0E42}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{301A9B02-6CBA-4CA8-87D7-A761D86C7B7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12920,7 +12920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8385D443-3FBE-4E04-AD6F-DF63932EE9ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE41E9C5-48EE-4CEB-A8C0-7592F68F1831}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14165,18 +14165,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AD3F54A-E7F3-4A91-B123-42CFFDFF2D03}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4827F5DC-B315-4F7A-8022-CBFC997864DC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5888E8CB-EC06-4516-89C8-37BFBFE714AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52DFF43F-F7C6-4585-A444-826A544063B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B7CAE98-4A6B-4DEA-9D25-B25759558E10}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EFC82650-B568-4236-972C-8D8BEC743D39}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B005BD60-42FC-4B52-942D-143CF9533161}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED4A980D-48F5-470E-91E3-3CC56AD52BD4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42A7C93C-9344-4846-B39A-0F4A1F06A227}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{888EAA33-D9D0-4322-9339-BA96CC85CA94}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C47D717-6403-4ADE-BE2E-D2766F0AD037}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6EE03B99-54B7-4990-8D1A-F9705D11249A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D71A5177-57B9-46D6-AF29-BBFB84B479F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3D7EE4D-2C4D-4298-95F9-6E759EB669D9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{86C638C7-41B6-45FA-AB9C-9433FEC053EF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D2BA0BC-D29C-4C2F-AF3F-438929E0C970}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5422D4F-E402-4BD8-AD26-CE87D9A27D3A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{299B0A15-4888-4E8C-AF7D-1D5E321B3935}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{632DBDC6-AAB1-4A0C-B701-205365A8E87C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69C096EA-ECEB-4710-9F9E-1AD9BA658179}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C16F9B6F-4E73-4848-9B00-B4483CA18F5D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9F2D7647-2E34-4F90-B94A-E8A03BB5FD6A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D793E28-DDB9-40A6-B220-28DD3FF59A56}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A9A3EB8-9396-473C-8709-3B8CE7FBC458}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14189,7 +14189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A033FD-213C-4A29-9BEF-F4E79CAEE949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D3BE7F-D3FA-44B2-8504-F9015674BF53}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15434,18 +15434,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57837D11-ADDE-45C2-9FE6-F3B3394FC1F4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1E9DE8F-E3E9-4C07-83AF-48192AB7C76E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB48D7E3-C775-48CE-ACF9-2A46783F44EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2EBFAA1B-2EDB-48C7-A57B-803E7C0F4910}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A7F3B1E-2A55-4841-B052-01506F38810E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EB70326B-3879-4B06-AAC7-5E70259FCA58}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89FCF65B-812D-4D4B-BA13-B2A77010B88C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA204FFF-4A77-4EF3-93D0-00172B7447E8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{634725E0-E3BF-4E08-83FC-7AB71C2B5AA3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{50F0F6FD-9170-4641-8155-2E9CC1AD97DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9A42F50-4B3B-4096-9CB5-648FCA9AC673}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E78974AF-57E8-45C7-8144-286A1360C8D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D44DED3E-320E-490F-9F5F-4820C1D90EFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48C7B3DD-C95C-45E1-A049-C02DCB3D5578}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96395EEF-0A74-401A-8A7C-A257B92C3010}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F045C43-7C37-4513-9787-B8670CD09A7B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6130C58E-E9B0-407F-9A3F-859CDD27D4CC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C088BB2A-EE0B-40D4-8A51-CA4ABA8AA334}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8165BDD0-B8DA-4C38-AE75-CCFD6078B992}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBB49F31-EA13-4A7D-9FE8-B30E239C93B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E55B61D2-73FA-4BE2-8C13-1389F9FC14AA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6B16D8B6-6FDA-4050-BEF5-22077FE7A1AC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C909DE39-358F-474C-9008-9FAD479EE2B0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2D3AC7B-5116-4021-9AC0-1433843E7815}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15458,7 +15458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59542F08-B6F9-49F2-B8A9-7F8341FED8B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DEB481-5142-4F54-9C49-5167B409E89F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16699,18 +16699,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{874C06CB-8234-4B9E-9B36-3C6F01D21029}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BA38313-102F-46FC-979F-38B77F8BBC72}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D34D41A-EA83-41B0-A396-BA55FD715A86}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FF2E9ACA-500C-447A-8677-F50B7390BFAC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A3AB1FE-7D2B-4A8A-BCB2-D8433BEAF36F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CC643E32-F7FB-426F-B024-302471AAB0FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{056D2E60-B9B3-42F9-8402-A6759C22B869}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9F66E39-9AD4-41A3-A6AA-6F0C5115DCE6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19F30F31-EAD8-42A3-AD74-9FD671ABF9C5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{12A7BA47-DE4F-4112-A3EF-787DD809BD8E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6552058F-18A2-432C-AFFC-3EAF4466E945}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9FF71AD-FD80-431A-AB48-C1288CDD4455}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F68BDA4-A3A5-446A-9964-CB19412D9D07}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E87D69D9-54E1-4B41-BA4C-F686AB65E673}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7C3C42C3-B9AF-434D-8FEA-6459D1BD50E1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2089B0B5-8754-4B04-B2C1-4D2B0F1F73BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1DEE98E3-AF99-49DA-AC63-2A78435EE481}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E8BC119F-631C-45C5-927E-316855CD7885}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DCDC5009-7BEB-4555-B860-8BDC68711152}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC8AD040-D5EA-4917-B47C-25A6D6011F83}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DCE9CD43-39EB-4F4F-9343-703AE75B0E09}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1DAD7C25-8115-4B0D-8E72-0B6970F8CFC8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58E12135-B103-4A08-925E-B0FA2EC925F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70C047DE-9DC6-49C3-8CD5-71747E6F020D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
